--- a/Куделин/Солнечная энергетика/Solar AsiaPacific Japan.xlsx
+++ b/Куделин/Солнечная энергетика/Solar AsiaPacific Japan.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>412.66496935212945</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>505.00930107476449</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>612.64313358943411</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>734.70589008971433</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>868.53525068062174</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1016.4150317783447</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73.116514867236944</c:v>
+                  <c:v>38.150511301933633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.730147057756867</c:v>
+                  <c:v>50.723277952844427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.926493615590658</c:v>
+                  <c:v>58.767415283201309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108.89174599125948</c:v>
+                  <c:v>65.709731987541005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118.5951050912817</c:v>
+                  <c:v>74.408925485275915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139.66866869017409</c:v>
+                  <c:v>93.860435146728548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627535024"/>
-        <c:axId val="1627553520"/>
+        <c:axId val="-85361072"/>
+        <c:axId val="-85353456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627535024"/>
+        <c:axId val="-85361072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627553520"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627553520"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627535024"/>
+        <c:crossAx val="-85361072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6494425365665</c:v>
+                  <c:v>10.746338956573975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.1254994378496</c:v>
+                  <c:v>16.373004503521088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.7092870532706</c:v>
+                  <c:v>22.117796577244185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.4208425636102</c:v>
+                  <c:v>28.0219373698962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1794.0210725091176</c:v>
+                  <c:v>37.215168858649328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4531624418019</c:v>
+                  <c:v>10.821649968448098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.843283168778</c:v>
+                  <c:v>16.624212658347943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2611759015999</c:v>
+                  <c:v>22.7019515180695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.331705634258</c:v>
+                  <c:v>29.144965138734751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7861360660775</c:v>
+                  <c:v>39.303266469415199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627533936"/>
-        <c:axId val="1627549168"/>
+        <c:axId val="-85342576"/>
+        <c:axId val="-85359984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627533936"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627549168"/>
+        <c:crossAx val="-85359984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627549168"/>
+        <c:axId val="-85359984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627533936"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6975547411698</c:v>
+                  <c:v>11.011938586284984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.6063828869758</c:v>
+                  <c:v>17.165118311509193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1352633192305</c:v>
+                  <c:v>23.852547560178259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0669518681668</c:v>
+                  <c:v>31.2338147978537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1836216730171</c:v>
+                  <c:v>43.041541873480128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0954243794984</c:v>
+                  <c:v>11.015342143574294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4374198085657</c:v>
+                  <c:v>17.174730860112316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5636930226656</c:v>
+                  <c:v>23.873124265544664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2515528332679</c:v>
+                  <c:v>31.271610744966132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4956924132375</c:v>
+                  <c:v>43.110176048413507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627532848"/>
-        <c:axId val="1627522512"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85346384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627532848"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627522512"/>
+        <c:crossAx val="-85346384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627522512"/>
+        <c:axId val="-85346384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627532848"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>7.066010101010102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>9.8160606060606059E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>0.14701545195101701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>0.20291885606060611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>0.28626660606060611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>0.42849942624878928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.60852142628919337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.82912642513131307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>1.1165856081616159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>1.463806013469489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.8525675274694899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>2.2911237799999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>2.7484078751515151</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>3.3303571682129509</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>4.3826757587597651</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>6.7389046300174407</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>12.16393079496509</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>17.556538376216551</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>32.386497215403303</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>62.967796824061253</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>95.624065743606096</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>141.70148508443501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>219.84462125800599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>309.36656131676813</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>390.37162542473442</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>466.8954102833199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>591.00746619838731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>743.17852652375313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627524144"/>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85352912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627524144"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627540464"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627540464"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627524144"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627533392"/>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85358896"/>
+        <c:axId val="-85342032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627533392"/>
+        <c:axId val="-85358896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627542096"/>
+        <c:crossAx val="-85342032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627542096"/>
+        <c:axId val="-85342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627533392"/>
+        <c:crossAx val="-85358896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627550256"/>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85357808"/>
+        <c:axId val="-85361616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627550256"/>
+        <c:axId val="-85357808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627526864"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627526864"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627550256"/>
+        <c:crossAx val="-85357808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1627554064"/>
-        <c:axId val="1627550800"/>
+        <c:axId val="-85356720"/>
+        <c:axId val="-85365968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1627554064"/>
+        <c:axId val="-85356720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627550800"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1627550800"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627554064"/>
+        <c:crossAx val="-85356720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13476,88 +13476,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14420,111 +14420,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.55601354214642051</v>
+        <v>-6.9193020464542371E-2</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.72828939825501993</v>
+        <v>-4.0937164989288434E-2</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.94505273777901244</v>
+        <v>-0.14304828319041213</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2240131937393139</v>
+        <v>-0.87738589785166954</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5814485855570126</v>
+        <v>-15.416253054452064</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0465459757623909</v>
+        <v>-2315.4669356857034</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.6226878499042856</v>
+        <v>-32475037.257220559</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3692666816532042</v>
+        <v>-4622854668801107</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.3189872306887835</v>
+        <v>-6.9550102137601453E+31</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.5338243878226372</v>
+        <v>-1.2008294439846051E+64</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>7.0690930427789933</v>
+        <v>-2.828511311392325E+128</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>9.0069235893839696</v>
-      </c>
-      <c r="R16">
+        <v>-1.2689268810310028E+257</v>
+      </c>
+      <c r="R16" t="e">
         <f t="shared" si="6"/>
-        <v>11.456388149180155</v>
-      </c>
-      <c r="S16">
+        <v>#NUM!</v>
+      </c>
+      <c r="S16" t="e">
         <f t="shared" si="6"/>
-        <v>14.4975309294221</v>
-      </c>
-      <c r="T16">
+        <v>#NUM!</v>
+      </c>
+      <c r="T16" t="e">
         <f t="shared" si="6"/>
-        <v>18.240912830450938</v>
-      </c>
-      <c r="U16">
+        <v>#NUM!</v>
+      </c>
+      <c r="U16" t="e">
         <f t="shared" si="6"/>
-        <v>22.985144323967791</v>
-      </c>
-      <c r="V16">
+        <v>#NUM!</v>
+      </c>
+      <c r="V16" t="e">
         <f t="shared" si="6"/>
-        <v>28.765293964107215</v>
-      </c>
-      <c r="W16">
+        <v>#NUM!</v>
+      </c>
+      <c r="W16" t="e">
         <f t="shared" si="6"/>
-        <v>35.770851299333721</v>
-      </c>
-      <c r="X16">
+        <v>#NUM!</v>
+      </c>
+      <c r="X16" t="e">
         <f t="shared" si="6"/>
-        <v>44.182852844502939</v>
-      </c>
-      <c r="Y16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y16" t="e">
         <f t="shared" si="6"/>
-        <v>54.102007212394099</v>
-      </c>
-      <c r="Z16">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z16" t="e">
         <f t="shared" si="6"/>
-        <v>65.390903846449518</v>
-      </c>
-      <c r="AA16">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA16" t="e">
         <f t="shared" si="6"/>
-        <v>78.23143773684987</v>
-      </c>
-      <c r="AB16" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB16" s="43" t="e">
         <f t="shared" si="6"/>
-        <v>92.344331722635076</v>
-      </c>
-      <c r="AC16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>107.63383251466965</v>
-      </c>
-      <c r="AD16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>122.06275650028022</v>
-      </c>
-      <c r="AE16" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE16" s="44" t="e">
         <f t="shared" si="6"/>
-        <v>133.82936059090741</v>
-      </c>
-      <c r="AF16" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF16" s="45" t="e">
         <f t="shared" si="6"/>
-        <v>147.87978109772297</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14540,367 +14540,367 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.59551354214642049</v>
+        <v>-2.969302046454237E-2</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.3238029404014404</v>
+        <v>-7.0630185453830804E-2</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.268855678180453</v>
+        <v>-0.21367846864424295</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.4928688719197671</v>
+        <v>-1.0910643664959125</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>5.0743174574767798</v>
+        <v>-16.507317420947977</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>7.1208634332391707</v>
+        <v>-2331.9742531066513</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.7435512831434572</v>
+        <v>-32477369.231473666</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>13.112817964796662</v>
+        <v>-4622854701278476</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.431805195485445</v>
+        <v>-6.9550102137601462E+31</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.965629583308083</v>
+        <v>-1.2008294439846051E+64</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>30.034722626087074</v>
+        <v>-2.828511311392325E+128</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>39.041646215471047</v>
-      </c>
-      <c r="R17" s="6">
+        <v>-1.2689268810310028E+257</v>
+      </c>
+      <c r="R17" s="6" t="e">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>50.498034364651204</v>
-      </c>
-      <c r="S17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="S17" s="6" t="e">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>64.995565294073302</v>
-      </c>
-      <c r="T17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="T17" s="6" t="e">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>83.23647812452424</v>
-      </c>
-      <c r="U17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="U17" s="6" t="e">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>106.22162244849203</v>
-      </c>
-      <c r="V17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="V17" s="6" t="e">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>134.98691641259924</v>
-      </c>
-      <c r="W17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="W17" s="6" t="e">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>170.75776771193296</v>
-      </c>
-      <c r="X17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="X17" s="6" t="e">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>214.9406205564359</v>
-      </c>
-      <c r="Y17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y17" s="6" t="e">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>269.04262776883002</v>
-      </c>
-      <c r="Z17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z17" s="6" t="e">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>334.43353161527955</v>
-      </c>
-      <c r="AA17" s="6">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA17" s="6" t="e">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>412.66496935212945</v>
-      </c>
-      <c r="AB17" s="49">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB17" s="49" t="e">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>505.00930107476449</v>
-      </c>
-      <c r="AC17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC17" s="50" t="e">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>612.64313358943411</v>
-      </c>
-      <c r="AD17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD17" s="50" t="e">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>734.70589008971433</v>
-      </c>
-      <c r="AE17" s="50">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE17" s="50" t="e">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>868.53525068062174</v>
-      </c>
-      <c r="AF17" s="51">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF17" s="51" t="e">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1016.4150317783447</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="17" t="e">
         <f>AF17-$AF$3</f>
-        <v>914.01703177834463</v>
-      </c>
-      <c r="C18" s="18">
+        <v>#NUM!</v>
+      </c>
+      <c r="C18" s="18" t="e">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>555.59375333530613</v>
+        <v>#NUM!</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="5" t="e">
         <f>SUM(F18:AA18)</f>
-        <v>371771.03170940583</v>
+        <v>#NUM!</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29269565278581672</v>
+        <v>7.0884646949428507E-3</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5067564820245862</v>
+        <v>2.7866636953777599E-2</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.5182154411696329</v>
+        <v>0.12739525477927197</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>10.724602385450453</v>
+        <v>1.7137149694726694</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>22.375319349707755</v>
+        <v>283.96897892427569</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>43.839285858026074</v>
+        <v>5440434.9248763928</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>81.883157367052291</v>
+        <v>1054779557316333.1</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>147.83794859670385</v>
+        <v>2.1370785589132516E+31</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>261.15151692694752</v>
+        <v>4.8372167073507955E+63</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>455.2053187244793</v>
+        <v>1.4419913535403759E+128</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>786.19071529429061</v>
-      </c>
-      <c r="Q18">
+        <v>8.0004762386743299E+256</v>
+      </c>
+      <c r="Q18" t="e">
         <f t="shared" si="32"/>
-        <v>1349.0325691130117</v>
-      </c>
-      <c r="R18">
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" t="e">
         <f t="shared" si="32"/>
-        <v>2294.7992622362658</v>
-      </c>
-      <c r="S18">
+        <v>#NUM!</v>
+      </c>
+      <c r="S18" t="e">
         <f t="shared" si="32"/>
-        <v>3837.8090403398387</v>
-      </c>
-      <c r="T18">
+        <v>#NUM!</v>
+      </c>
+      <c r="T18" t="e">
         <f t="shared" si="32"/>
-        <v>6281.3707768657114</v>
-      </c>
-      <c r="U18">
+        <v>#NUM!</v>
+      </c>
+      <c r="U18" t="e">
         <f t="shared" si="32"/>
-        <v>10157.106752831056</v>
-      </c>
-      <c r="V18">
+        <v>#NUM!</v>
+      </c>
+      <c r="V18" t="e">
         <f t="shared" si="32"/>
-        <v>16285.59170860909</v>
-      </c>
-      <c r="W18">
+        <v>#NUM!</v>
+      </c>
+      <c r="W18" t="e">
         <f t="shared" si="32"/>
-        <v>24916.302443810368</v>
-      </c>
-      <c r="X18">
+        <v>#NUM!</v>
+      </c>
+      <c r="X18" t="e">
         <f t="shared" si="32"/>
-        <v>36631.071565441154</v>
-      </c>
-      <c r="Y18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y18" t="e">
         <f t="shared" si="32"/>
-        <v>54991.401783798356</v>
-      </c>
-      <c r="Z18">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z18" t="e">
         <f t="shared" si="32"/>
-        <v>84743.773744426406</v>
-      </c>
-      <c r="AA18">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA18" t="e">
         <f t="shared" si="32"/>
-        <v>128467.24652985594</v>
-      </c>
-      <c r="AB18" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB18" s="43" t="e">
         <f t="shared" si="32"/>
-        <v>196155.92650330227</v>
-      </c>
-      <c r="AC18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>296912.60780114768</v>
-      </c>
-      <c r="AD18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>435033.63886527298</v>
-      </c>
-      <c r="AE18" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE18" s="44" t="e">
         <f t="shared" si="32"/>
-        <v>602379.71828306606</v>
-      </c>
-      <c r="AF18" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF18" s="45" t="e">
         <f t="shared" si="32"/>
-        <v>835427.13438089541</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="20" t="e">
         <f>(B18/$AF$3)*100</f>
-        <v>892.61219142790344</v>
-      </c>
-      <c r="C19" s="21">
+        <v>#NUM!</v>
+      </c>
+      <c r="C19" s="21" t="e">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>1153.7299345065271</v>
+        <v>#NUM!</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="5" t="e">
         <f>SUM(F19:AA19)</f>
-        <v>1792.773851577607</v>
+        <v>#NUM!</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.5410135421464205</v>
+        <v>8.419302046454237E-2</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2275000945110295</v>
+        <v>0.16693303134424176</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1256094281804532</v>
+        <v>0.35692471864424291</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.2748438719197672</v>
+        <v>1.3090893664959125</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.7302557382986974</v>
+        <v>16.85137914012606</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.6211242140610889</v>
+        <v>2332.4739923258294</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.0489312831434567</v>
+        <v>32477369.926093664</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.158862964796661</v>
+        <v>4622854701278477</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>16.160183072197775</v>
+        <v>6.9550102137601462E+31</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>21.335541210020413</v>
+        <v>1.2008294439846051E+64</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>28.039092626087076</v>
-      </c>
-      <c r="Q19">
+        <v>2.828511311392325E+128</v>
+      </c>
+      <c r="Q19" t="e">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>36.729178715471051</v>
-      </c>
-      <c r="R19">
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" t="e">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>47.904063107801889</v>
-      </c>
-      <c r="S19">
+        <v>#NUM!</v>
+      </c>
+      <c r="S19" t="e">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>61.950052787223989</v>
-      </c>
-      <c r="T19">
+        <v>#NUM!</v>
+      </c>
+      <c r="T19" t="e">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>79.255099374524235</v>
-      </c>
-      <c r="U19">
+        <v>#NUM!</v>
+      </c>
+      <c r="U19" t="e">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>100.78247244849203</v>
-      </c>
-      <c r="V19">
+        <v>#NUM!</v>
+      </c>
+      <c r="V19" t="e">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>127.61501364890061</v>
-      </c>
-      <c r="W19">
+        <v>#NUM!</v>
+      </c>
+      <c r="W19" t="e">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>157.84898619823431</v>
-      </c>
-      <c r="X19">
+        <v>#NUM!</v>
+      </c>
+      <c r="X19" t="e">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>191.39245430643589</v>
-      </c>
-      <c r="Y19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y19" t="e">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>234.50245581613501</v>
-      </c>
-      <c r="Z19">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z19" t="e">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>291.10783868598662</v>
-      </c>
-      <c r="AA19">
+        <v>#NUM!</v>
+      </c>
+      <c r="AA19" t="e">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>358.42327844303855</v>
-      </c>
-      <c r="AB19" s="43">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB19" s="43" t="e">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>442.89493844850188</v>
-      </c>
-      <c r="AC19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AC19" s="44" t="e">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>544.89687813488865</v>
-      </c>
-      <c r="AD19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AD19" s="44" t="e">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>659.57079897860319</v>
-      </c>
-      <c r="AE19" s="44">
+        <v>#NUM!</v>
+      </c>
+      <c r="AE19" s="44" t="e">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>776.13125068062175</v>
-      </c>
-      <c r="AF19" s="45">
+        <v>#NUM!</v>
+      </c>
+      <c r="AF19" s="45" t="e">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>914.01703177834463</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15045,111 +15045,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7777430820541702</v>
+        <v>-9.0901186440033158E-2</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.9024814296435038</v>
+        <v>-0.12601996376884203</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4592742855753169</v>
+        <v>-0.15663865867797561</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9366115712394532</v>
+        <v>-8.2194607017231872E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.4297840201552141</v>
+        <v>-3.4782310683472747E-2</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>7.0348319829031372</v>
+        <v>-0.23556165891736952</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.5517845747276278</v>
+        <v>-4.1297930310487119E-2</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.2010616143476707</v>
+        <v>-0.71116028421220734</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.9229458002758051</v>
+        <v>-3.8194739573106035E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.8010388166604852</v>
+        <v>-1.5955805014054152</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.729121318808732</v>
+        <v>-0.22661277012358277</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.700982146765575</v>
+        <v>-1.9990947500159977</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.812996020908018</v>
+        <v>6.0585821804101647E-4</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.722268972896368</v>
+        <v>-3.4608532573655184</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>14.31654074200909</v>
+        <v>-0.58880603905637408</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>15.699247164955121</v>
+        <v>-1.5101409895426459</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>17.04940650064075</v>
+        <v>-0.5653624656703895</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>18.455858309224482</v>
+        <v>-1.8067767541043029</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>20.050758918532164</v>
+        <v>-0.74021912251657063</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>22.448339114802351</v>
+        <v>-1.9902759430817332</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>25.842990123472049</v>
+        <v>-4.5853234451207756</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>29.79082193794402</v>
+        <v>-5.1751816273592928</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>33.488456148665954</v>
+        <v>-3.5184129562464825</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>37.812130989328047</v>
+        <v>-3.3469473430613093</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>41.145490536714036</v>
+        <v>-2.0365234670044376</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>43.460013980170572</v>
+        <v>-0.72616562583520938</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>47.264668690174091</v>
+        <v>1.4564351467285448</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15165,111 +15165,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.8172430820541701</v>
+        <v>-5.1401186440033157E-2</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.9569814296435037</v>
+        <v>-7.1519963768842038E-2</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.5555771314657276</v>
+        <v>-6.0335812787564641E-2</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>6.079857821239453</v>
+        <v>6.105164298276812E-2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.647809020155214</v>
+        <v>0.18324268931652726</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.3788937020812195</v>
+        <v>0.10850006026071268</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>8.0515237939057105</v>
+        <v>0.45844128886759505</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.8956816143476711</v>
+        <v>-1.6540284212207434E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>9.8769008002758056</v>
+        <v>0.95013552604268936</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>11.072660939948156</v>
+        <v>-0.32395837811774419</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>12.359209692096403</v>
+        <v>1.4034756031640883</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>13.696612146765576</v>
+        <v>-3.4647500159976641E-3</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>15.125463520908019</v>
+        <v>2.3130733582180407</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>16.316240229745681</v>
+        <v>-0.86688200051620345</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>17.362053248858405</v>
+        <v>2.4567064677929409</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>19.680625914955122</v>
+        <v>2.4712377604573543</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>22.488556500640748</v>
+        <v>4.87378753432961</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>25.82776107292311</v>
+        <v>5.5651260095943273</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>32.959540432230796</v>
+        <v>12.168562391182059</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>45.996505364802353</v>
+        <v>21.557890306918267</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>60.383162076167046</v>
+        <v>29.954848507574223</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>73.116514867236944</v>
+        <v>38.150511301933633</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>87.730147057756867</v>
+        <v>50.723277952844427</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>99.926493615590658</v>
+        <v>58.767415283201309</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>108.89174599125948</v>
+        <v>65.709731987541005</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>118.5951050912817</v>
+        <v>74.408925485275915</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>139.66866869017409</v>
+        <v>93.860435146728548</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15278,126 +15278,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>37.270668690174091</v>
+        <v>-8.5375648532714479</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>18.39584473202806</v>
+        <v>7.5536147538858316</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>2683.3730484221851</v>
+        <v>833.34716083932199</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.158235501546514</v>
+        <v>1.1215061289406662E-2</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.626196294555974</v>
+        <v>2.8164495441925862E-2</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.293325570467584</v>
+        <v>4.1445656288839908E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.361084024160085</v>
+        <v>2.4640634813259336E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>39.73723003457647</v>
+        <v>2.5862760365611699E-2</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>47.322766399646333</v>
+        <v>0.15306807947037071</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>54.124033432784245</v>
+        <v>5.5780383592163932E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>63.071021617038127</v>
+        <v>0.94186109667813322</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>74.050821108626664</v>
+        <v>0.10335363220815703</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>89.162176676649167</v>
+        <v>3.8182987066780565</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>107.40378403443297</v>
+        <v>0.35064682969210248</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>129.5987493384813</v>
+        <v>5.3635421866641604</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>157.03829836416315</v>
+        <v>7.8903629455465613E-2</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>176.11221429525017</v>
+        <v>15.306830781263878</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>179.0424500443996</v>
+        <v>2.3246255681304828</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>202.81963623624685</v>
+        <v>8.8085030616270412</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>228.51322020260608</v>
+        <v>6.2405796992054317</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>166.90003285165994</v>
+        <v>53.929276162961415</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>88.573963997960348</v>
+        <v>129.49538398362421</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>131.24757524936734</v>
+        <v>168.53963673027135</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>290.95725369656247</v>
+        <v>178.77948054980618</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>356.25897945100343</v>
+        <v>258.92606114979429</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>656.1684120407831</v>
+        <v>129.75681003698284</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>1035.5677281015903</v>
+        <v>80.619570822543238</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>1139.5117486974441</v>
+        <v>88.837394608266465</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>685.97398590256216</v>
+        <v>323.82270679047213</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>1389.1027446127232</v>
+        <v>72.890013623815918</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15406,126 +15406,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>36.397848288222519</v>
+        <v>-8.3376285213299557</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>38.200279629613092</v>
+        <v>15.685618139102356</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>226.43469753945021</v>
+        <v>79.928188790220389</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.7627430820541701</v>
+        <v>0.10590118644003316</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.860678583753093</v>
+        <v>0.167822809659253</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4123308814657278</v>
+        <v>0.20358206278756463</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.861832821239453</v>
+        <v>0.15697335701723186</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3037473009771317</v>
+        <v>0.16081902986155494</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.8791544829031377</v>
+        <v>0.39123915891736949</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.3569037939057109</v>
+        <v>0.23617871113240485</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>7.9417266143476715</v>
+        <v>0.97049528421220743</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.6052786769881351</v>
+        <v>0.32148659724498163</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.4425725666604841</v>
+        <v>1.9540467514054152</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.363579692096403</v>
+        <v>0.59215439683591176</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.384144646765575</v>
+        <v>2.3159322500159973</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.531492264058704</v>
+        <v>0.28089789863127423</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.270727722896366</v>
+        <v>3.9123945073655184</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.380674498858404</v>
+        <v>1.5246722822070593</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>14.241475914955123</v>
+        <v>2.9679122395426454</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>15.116653736942117</v>
+        <v>2.4981152293690201</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>12.91897955922448</v>
+        <v>7.3436555041043023</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>9.4113741822307944</v>
+        <v>11.379603858817942</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>11.456333412107355</v>
+        <v>12.98228164577673</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>17.057469146874119</v>
+        <v>13.370844421718704</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>18.874823958146031</v>
+        <v>16.091179607157279</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>25.615784431494248</v>
+        <v>11.391084673418192</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>32.18023816104521</v>
+        <v>8.9788401713441388</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>33.756654880148361</v>
+        <v>9.425359123570118</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>26.191105091281699</v>
+        <v>17.995074514724081</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>37.270668690174091</v>
+        <v>8.5375648532714479</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16243,107 +16243,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>3.9577735367973821E-5</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283377</v>
+        <v>8.1850300077485061E-5</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>1.2849972218580141E-4</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>2.3442887764698467E-4</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003863</v>
+        <v>4.729297025640733E-4</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>7.8914968000389635E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>1.2695838291443967E-3</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819021</v>
+        <v>2.091731532178516E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>3.2611244858390814E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>4.7959132943988098E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>6.960733885942906E-3</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>9.5356269312566189E-3</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872971</v>
+        <v>1.4193171957563352E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>2.6007162598144867E-2</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>5.8995013605020435E-2</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.14726874171713475</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404447</v>
+        <v>0.19158046240636734</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.53229590190861831</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>1.223925351526082</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>1.5867766242608612</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>2.4740082782407709</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>4.4220744818780879</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>5.6266655469471125</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>5.7447920737230973</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>5.9041407926520151</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>9.1932314887531277</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16359,111 +16359,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>10.004216730557861</v>
+        <v>3.9552616498717788E-2</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.998074377795911</v>
+        <v>3.9592194234085762E-2</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.765729871424249</v>
+        <v>3.9674044534163247E-2</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.674875376936772</v>
+        <v>3.9802544256349048E-2</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.037169727071635</v>
+        <v>4.0036973133996033E-2</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.721018217872022</v>
+        <v>4.0509902836560106E-2</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.749939171332024</v>
+        <v>4.1299052516564003E-2</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.580272735901197</v>
+        <v>4.2568636345708399E-2</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.306187939720218</v>
+        <v>4.4660367877886915E-2</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.08259164406645</v>
+        <v>4.7921492363725997E-2</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.77408598197204</v>
+        <v>5.2717405658124807E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.84233531733298</v>
+        <v>5.9678139544067713E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.89981245231607</v>
+        <v>6.9213766475324331E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.46431596418904</v>
+        <v>8.3406938432887684E-2</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.52979624351315</v>
+        <v>0.10941410103103255</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>413.02916915671517</v>
+        <v>0.16840911463605299</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.85223993282261</v>
+        <v>0.31567785635318774</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.37569098686708</v>
+        <v>0.50725831875955507</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.69924949177437</v>
+        <v>1.0395542206681734</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.32095916417188</v>
+        <v>2.2634795721942553</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.77267981339139</v>
+        <v>3.8502561964551165</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6952327252825</v>
+        <v>6.3242644746958874</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6494425365665</v>
+        <v>10.746338956573975</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.1254994378496</v>
+        <v>16.373004503521088</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.7092870532706</v>
+        <v>22.117796577244185</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.4208425636102</v>
+        <v>28.0219373698962</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1794.0210725091176</v>
+        <v>37.215168858649328</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16472,126 +16472,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1691.6230725091177</v>
+        <v>-65.182831141350675</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>639.16953069292606</v>
+        <v>-17.265404706955643</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4178789.1012873724</v>
+        <v>5678.7870872446038</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>98.996863018342992</v>
+        <v>2.2342427353440369E-4</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>166.45570866148717</v>
+        <v>3.2160980112850607E-3</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>276.30696174451737</v>
+        <v>1.0727201745057502E-2</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>460.39642809825165</v>
+        <v>3.1763243731297623E-2</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>766.90823113685803</v>
+        <v>9.2431046207171103E-2</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1311.9810523012266</v>
+        <v>0.21089156498750178</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2121.0924239732631</v>
+        <v>0.42682826042065447</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3555.2977667426458</v>
+        <v>0.83062510385499266</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>5934.3243305262777</v>
+        <v>1.5054351492382587</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10090.70541336582</v>
+        <v>2.503252039092605</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>16842.447637064652</v>
+        <v>3.7749093492522761</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>27732.196875258396</v>
+        <v>5.0750599025834475</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>45926.993570496619</v>
+        <v>6.3744003851995705</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>70978.978835640606</v>
+        <v>8.774069398443606</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>102111.19112260859</v>
+        <v>14.992110242865381</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>166129.62371617145</v>
+        <v>27.780709480647118</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>248482.64654424353</v>
+        <v>49.790309943042203</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>354580.84027752659</v>
+        <v>153.79777755461186</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>491612.84153111361</v>
+        <v>506.63761548698153</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>665498.29278337688</v>
+        <v>1041.7848710254746</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>856452.12553285668</v>
+        <v>1558.3101052482809</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1107658.4576814461</v>
+        <v>2296.0797560956594</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1414993.7063372131</v>
+        <v>2638.6738557296921</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1807355.5516531204</v>
+        <v>2639.2109132769251</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2124522.5366764329</v>
+        <v>2810.8335196907969</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2325676.3701026831</v>
+        <v>4145.0499885066083</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>2861588.619445188</v>
+        <v>4248.8014756018356</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16600,126 +16600,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>1652.0079225269221</v>
+        <v>-63.656351824596847</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>1327.2809788771542</v>
+        <v>-35.852840537181024</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6500.9649661600306</v>
+        <v>185.95172893349522</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.94971673055786</v>
+        <v>1.4947383501282212E-2</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.901771531905499</v>
+        <v>5.6710651656325203E-2</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.622483621424248</v>
+        <v>0.10357220546583674</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.456850376936771</v>
+        <v>0.17822245574365095</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.693108007893553</v>
+        <v>0.30402474604408619</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.22127899869394</v>
+        <v>0.45922931634152209</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.055319171332023</v>
+        <v>0.65332094748343594</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>59.626317735901196</v>
+        <v>0.9113863636542916</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>77.034565816432547</v>
+        <v>1.226961755409784</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>100.45250327077878</v>
+        <v>1.5821668809239451</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>129.77845598197203</v>
+        <v>1.9429125943418752</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>166.52986781733298</v>
+        <v>2.2527893604559321</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>214.30584119546677</v>
+        <v>2.5247574903739904</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>266.41880345733972</v>
+        <v>2.9621055684164275</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>319.54841749351317</v>
+        <v>3.8719646489689676</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>407.59001915671519</v>
+        <v>5.2707408853639466</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>498.48033716912397</v>
+        <v>7.0562249073454426</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>595.46690947316847</v>
+        <v>12.401523194939074</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>701.15108324177436</v>
+        <v>22.508612029331829</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>815.78078721147688</v>
+        <v>32.276692380500741</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>925.44698688409846</v>
+        <v>39.475436732837814</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1052.4535418161915</v>
+        <v>47.917426434395026</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1189.5350799103039</v>
+        <v>51.36802366968864</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1344.3792439833041</v>
+        <v>51.37325095102436</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1457.5741959421596</v>
+        <v>53.017294533866938</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1525.0168425636102</v>
+        <v>64.382062630103803</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1691.6230725091177</v>
+        <v>65.182831141350675</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16840,107 +16840,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>3.4945901221189457E-5</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>7.3544254293081424E-5</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460559</v>
+        <v>1.1846323892193006E-4</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>2.1993856267340378E-4</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187248</v>
+        <v>4.5002901585074195E-4</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>7.6435723690460727E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>1.24819351776876E-3</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658747</v>
+        <v>2.0791491204506587E-3</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>3.2709306594454479E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>4.8420207008773378E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>7.0500650084552308E-3</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>9.6640216884038704E-3</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371471</v>
+        <v>1.4346860753264301E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>2.6188273584745347E-2</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>5.9220875270643375E-2</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.1474423844083724</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705488</v>
+        <v>0.19100066237233521</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.53054133665668712</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>1.2200139821101665</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>1.5859785792762873</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>2.4891045853262086</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>4.4884528902283893</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>5.8025626898998457</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>6.0777388597215563</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>6.4430136206652513</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>10.158301330680448</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16956,111 +16956,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3495805600049113</v>
+        <v>3.9543879555731812E-2</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.118994904627167</v>
+        <v>3.9578825456953001E-2</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.682710877016017</v>
+        <v>3.9652369711246083E-2</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.407154213762073</v>
+        <v>3.9770832950168013E-2</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.628226619776548</v>
+        <v>3.9990771512841417E-2</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.211096002395273</v>
+        <v>4.0440800528692158E-2</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.312064227059096</v>
+        <v>4.1205157765596766E-2</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.305827030105782</v>
+        <v>4.2453351283365526E-2</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.366837116764529</v>
+        <v>4.4532500403816185E-2</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.65204470742196</v>
+        <v>4.7803431063261632E-2</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.05693946478178</v>
+        <v>5.264545176413897E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.98770676938497</v>
+        <v>5.9695516772594201E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.96370175716928</v>
+        <v>6.9359538460998071E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.30188808354075</v>
+        <v>8.3706399214262373E-2</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.75338635331877</v>
+        <v>0.10989467279900772</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.29238933976143</v>
+        <v>0.16911554806965109</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.46407703638579</v>
+        <v>0.3165579324780235</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.76621063344066</v>
+        <v>0.5075585948503587</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.64544181073973</v>
+        <v>1.0380999315070458</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.2695374419103</v>
+        <v>2.2581139136172124</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.2058033608314</v>
+        <v>3.8440924928934996</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2681344525627</v>
+        <v>6.3331970782197082</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4531624418019</v>
+        <v>10.821649968448098</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.843283168778</v>
+        <v>16.624212658347943</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2611759015999</v>
+        <v>22.7019515180695</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.331705634258</v>
+        <v>29.144965138734751</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7861360660775</v>
+        <v>39.303266469415199</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17069,126 +17069,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1792.3881360660775</v>
+        <v>-63.094733530584797</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>738.36169252260572</v>
+        <v>-15.186239699713589</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4179438.1289685154</v>
+        <v>5678.7974365407254</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>68.808361496971372</v>
+        <v>2.2368553874345685E-4</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>121.49974022173832</v>
+        <v>3.2176144941353565E-3</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>211.39603164024999</v>
+        <v>1.0731692033280676E-2</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>368.22267998245701</v>
+        <v>3.1774548070629412E-2</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>639.28899472065541</v>
+        <v>9.2459141214037602E-2</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1136.4555761653637</v>
+        <v>0.21095503737383034</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1902.4814409006108</v>
+        <v>0.42695095605220995</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3289.23722535763</v>
+        <v>0.83083525561314298</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5639.2913149165115</v>
+        <v>1.505748942589241</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>9805.3478362391979</v>
+        <v>2.5036256383901025</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>16656.821600764168</v>
+        <v>3.7751889546833128</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>27780.635385506732</v>
+        <v>5.0749816084143387</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>46384.120815780458</v>
+        <v>6.3736643286236108</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>71961.48303754293</v>
+        <v>8.7722954192243012</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>103537.22487707026</v>
+        <v>14.988388960020821</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>167979.67779729576</v>
+        <v>27.773263124532814</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>250092.18276878368</v>
+        <v>49.777890687431331</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>355046.0758371884</v>
+        <v>153.79032988296763</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>490136.19524757034</v>
+        <v>506.70308566295103</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>662155.48025948089</v>
+        <v>1042.1312712383865</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>853554.45845099166</v>
+        <v>1558.7967730194953</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1110971.7436888993</v>
+        <v>2295.2237811426248</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1436015.879143347</v>
+        <v>2630.9423717971258</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1866221.0891296607</v>
+        <v>2613.4632596562492</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2244381.7659296789</v>
+        <v>2749.2341275833892</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2527870.1091434159</v>
+        <v>4001.7054915787721</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3212655.230310428</v>
+        <v>3980.9453992955014</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17197,126 +17197,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>1750.4132268853666</v>
+        <v>-61.617154173504176</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>1533.2605560129882</v>
+        <v>-31.535306559821958</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6485.7990758997648</v>
+        <v>185.95366787211847</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.2950805600049105</v>
+        <v>1.4956120444268188E-2</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.022692058736755</v>
+        <v>5.6724020433457964E-2</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.539464627016017</v>
+        <v>0.10359388028875391</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.189129213762072</v>
+        <v>0.17825416704983199</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.284164900598466</v>
+        <v>0.30407094766524079</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>33.711356783217191</v>
+        <v>0.45929841864939003</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>43.617444227059096</v>
+        <v>0.65341484223440316</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>57.351872030105781</v>
+        <v>0.91150164871663453</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>75.095214993476858</v>
+        <v>1.2270896228838548</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>99.021956334134288</v>
+        <v>1.5822849422244094</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>129.06130946478177</v>
+        <v>1.942984548235861</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>166.67523926938497</v>
+        <v>2.2527719832274058</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>215.36973050031997</v>
+        <v>2.524611718388317</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>268.25637557669143</v>
+        <v>2.9618061076350526</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>321.7720076033188</v>
+        <v>3.8714840772009924</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>409.85323933976144</v>
+        <v>5.270034451930349</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>500.09217427268715</v>
+        <v>7.0553448312206068</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>595.85742911974205</v>
+        <v>12.401222918848271</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>700.09727556073972</v>
+        <v>22.510066318492957</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>813.7293654892153</v>
+        <v>32.282058039077782</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>923.88011043153847</v>
+        <v>39.481600436399425</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1054.0264435434717</v>
+        <v>47.908493830871208</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1198.3387998155392</v>
+        <v>51.292712657814519</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1366.0970277142326</v>
+        <v>51.122042796197505</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1498.1260847904889</v>
+        <v>52.433139593041624</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1589.927705634258</v>
+        <v>63.259034861265249</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1792.3881360660775</v>
+        <v>63.094733530584797</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18034,107 +18034,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737863</v>
+        <v>2.1777480340864908E-5</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>5.085981326351241E-5</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>9.3174330323131382E-5</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129818</v>
+        <v>1.8705301837462773E-4</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>4.0442469378654949E-4</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573254</v>
+        <v>7.2928414977208728E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>1.2416300068727043E-3</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398959</v>
+        <v>2.11733562013737E-3</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>3.3778256970457693E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>5.0245536123463205E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>7.2882455709316618E-3</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>9.9020402024081119E-3</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290275</v>
+        <v>1.4529238642628839E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>2.628553657305692E-2</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>5.913546957342744E-2</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.14665817960093008</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441114</v>
+        <v>0.18884476645140674</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.5258805811149404</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>1.2135017887882664</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>1.5926653148133165</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>2.534401390977485</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>4.6400789643364959</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>6.1531797252242093</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>6.6874292486690656</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>7.3812672376754414</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485029</v>
+        <v>11.807727075626428</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18150,111 +18150,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6664318817343053</v>
+        <v>3.951915121742694E-2</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7923280317080916</v>
+        <v>3.9540928697767805E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8606660449246917</v>
+        <v>3.9591788511031317E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.266459096098409</v>
+        <v>3.9684962841354449E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.43633107871139</v>
+        <v>3.9872015859729076E-2</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.241241076289132</v>
+        <v>4.0276440553515626E-2</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.134001974862386</v>
+        <v>4.1005724703287713E-2</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.241744383028191</v>
+        <v>4.2247354710160417E-2</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.82168162242715</v>
+        <v>4.4364690330297787E-2</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.913938167129402</v>
+        <v>4.7742516027343557E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.26907450081717</v>
+        <v>5.2767069639689877E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.9976471233567</v>
+        <v>6.0055315210621539E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.32675586929335</v>
+        <v>6.9957355413029651E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.08937404958363</v>
+        <v>8.448659405565849E-2</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.81335550242267</v>
+        <v>0.11077213062871541</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.8299084987143</v>
+        <v>0.16990760020214285</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.47844921320268</v>
+        <v>0.31656577980307293</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.97259767464379</v>
+        <v>0.50541054625447968</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.71164302389616</v>
+        <v>1.0312911273694201</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.17659625709882</v>
+        <v>2.2447929161576865</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.51930616274933</v>
+        <v>3.837458230971003</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0760467985963</v>
+        <v>6.371859621948488</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6975547411698</v>
+        <v>11.011938586284984</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.6063828869758</v>
+        <v>17.165118311509193</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1352633192305</v>
+        <v>23.852547560178259</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0669518681668</v>
+        <v>31.2338147978537</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1836216730171</v>
+        <v>43.041541873480128</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18263,126 +18263,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>1972.7856216730172</v>
+        <v>-59.356458126519868</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>911.95126578351176</v>
+        <v>-11.486626839377443</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4180285.5094896853</v>
+        <v>5676.814934328283</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.04605191828872</v>
+        <v>2.2442583024632074E-4</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>32.44470291746935</v>
+        <v>3.2219152433844793E-3</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>75.993407880944844</v>
+        <v>1.074424738656809E-2</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>170.26163236022347</v>
+        <v>3.1805168853747075E-2</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>364.5147492969744</v>
+        <v>9.2531375604907706E-2</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>769.59092528809583</v>
+        <v>0.21110604494140742</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1477.5860866093753</v>
+        <v>0.42721162087164632</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2839.5884973299721</v>
+        <v>0.83121083047994404</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5263.5111333286786</v>
+        <v>1.5061608067491212</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9659.7151302984421</v>
+        <v>2.5038184119889206</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>16971.170342107489</v>
+        <v>3.7747163661682515</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>28793.06018381083</v>
+        <v>5.0733606501876611</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>48282.496633538729</v>
+        <v>6.3706461746436176</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>74552.950326167862</v>
+        <v>8.7676744562355058</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>106166.47707439133</v>
+        <v>14.981595601920807</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>170066.13769514492</v>
+        <v>27.764915467827482</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>250106.55780164993</v>
+        <v>49.777779956324466</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>351724.69003938336</v>
+        <v>153.84361135603643</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>483252.25944037124</v>
+        <v>507.0096652881399</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>653892.86671181186</v>
+        <v>1042.9915071136138</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>850441.06028857781</v>
+        <v>1559.3206795897556</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1125369.5306355017</v>
+        <v>2291.5207474594799</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1489823.3288734164</v>
+        <v>2611.4577427616841</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>1996173.7396883832</v>
+        <v>2558.4514346826422</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2490084.5434888545</v>
+        <v>2629.8992730533259</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>2926367.7348943101</v>
+        <v>3741.7915576648779</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>3891883.1090797931</v>
+        <v>3523.1891213253066</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18391,126 +18391,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>1926.5860872995734</v>
+        <v>-57.96642329588456</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>1893.7316480420825</v>
+        <v>-23.852797392950286</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6451.4249011682914</v>
+        <v>185.94150700189073</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6119318817343053</v>
+        <v>1.498084878257306E-2</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.6960251858176809</v>
+        <v>5.676191719264316E-2</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.717419794924691</v>
+        <v>0.10365446148896867</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.048434096098408</v>
+        <v>0.17834003715864555</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.092269359533308</v>
+        <v>0.30418970331835316</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>27.74150185711105</v>
+        <v>0.45946277862456653</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>38.439381974862386</v>
+        <v>0.65361427529671223</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>53.287789383028191</v>
+        <v>0.91170764528983961</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>72.550059499139479</v>
+        <v>1.2272574329573731</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>98.283849793841725</v>
+        <v>1.5823458572603275</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>130.27344450081716</v>
+        <v>1.9428629303603102</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>169.6851796233567</v>
+        <v>2.2524121847893785</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>219.73278461244405</v>
+        <v>2.5240139014362852</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>273.04386154273431</v>
+        <v>2.9610259127936565</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>325.83197675242269</v>
+        <v>3.8706066193712849</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>412.39075849871432</v>
+        <v>5.2692423997978572</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>500.10654644950404</v>
+        <v>7.0553369838955575</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>593.06381616094518</v>
+        <v>12.40337096744415</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>695.16347677389615</v>
+        <v>22.51687512263058</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>808.63642430440382</v>
+        <v>32.295379036537312</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>922.1936132334564</v>
+        <v>39.488234698321925</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1060.8343558895053</v>
+        <v>47.869831287142425</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1220.5831921149072</v>
+        <v>51.102424039977635</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1412.8601274324303</v>
+        <v>50.581137143036258</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1578.0001722081195</v>
+        <v>51.282543550932864</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1710.6629518681668</v>
+        <v>61.1701852021463</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>1972.7856216730172</v>
+        <v>59.356458126519868</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18631,107 +18631,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983966</v>
+        <v>2.1280084617839035E-5</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>4.9996415444737707E-5</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>9.2182748942015724E-5</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336907</v>
+        <v>1.8575260147137701E-4</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>4.0259759832544928E-4</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412958</v>
+        <v>7.2775013707557928E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>1.240957719085431E-3</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.62752815761381</v>
+        <v>2.1179192853561582E-3</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>3.3803150691586806E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>5.029078618438744E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>7.2941631134399443E-3</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>9.9080020967225457E-3</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547824</v>
+        <v>1.4533959830723323E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>2.6288653453739791E-2</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>5.9135991327035314E-2</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.14664842679942</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634715</v>
+        <v>0.18881056280140868</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.52580902073034619</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>1.2134065027835541</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>1.592794653957839</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>2.5352005588986981</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>4.6427454716610219</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>6.1593887165380217</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>6.6983934054323484</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>7.398486479421468</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957996967</v>
+        <v>11.838565303447375</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18747,111 +18747,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.5139068390269204</v>
+        <v>3.9518345842429234E-2</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.6092140718253169</v>
+        <v>3.9539625927047073E-2</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.652490401224064</v>
+        <v>3.9589622342491811E-2</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.040643852723438</v>
+        <v>3.9681805091433826E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.203883169457129</v>
+        <v>3.9867557692905203E-2</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>28.012948853845607</v>
+        <v>4.0270155291230653E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.930983016258565</v>
+        <v>4.0997905428306232E-2</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.074215320004924</v>
+        <v>4.2238863147391663E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.701743477618734</v>
+        <v>4.4356782432747821E-2</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.848281978906726</v>
+        <v>4.7737097501906502E-2</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.26016901633889</v>
+        <v>5.2766176120345246E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.03967623872046</v>
+        <v>6.006033923378519E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.40693451304935</v>
+        <v>6.9968341330507736E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.18575708559717</v>
+        <v>8.4502301161231058E-2</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.90045348123471</v>
+        <v>0.11079095461497085</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.89188697656124</v>
+        <v>0.16992694594200616</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.49601843651601</v>
+        <v>0.31657537274142616</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.94059057615073</v>
+        <v>0.50538593554283484</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.64195547989243</v>
+        <v>1.031194956273181</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.10339755275834</v>
+        <v>2.2446014590567351</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.50351514323722</v>
+        <v>3.8373961130145742</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.2058305911501</v>
+        <v>6.3725966719132723</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0954243794984</v>
+        <v>11.015342143574294</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4374198085657</v>
+        <v>17.174730860112316</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5636930226656</v>
+        <v>23.873124265544664</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2515528332679</v>
+        <v>31.271610744966132</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4956924132375</v>
+        <v>43.110176048413507</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18860,126 +18860,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>1976.0976924132376</v>
+        <v>-59.287823951586489</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>915.13355273117838</v>
+        <v>-11.418729714408848</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4180406.149372601</v>
+        <v>5676.7660035859572</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>11.967495677906228</v>
+        <v>2.2444996129705741E-4</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.392190185039112</v>
+        <v>3.2220631406092333E-3</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>72.407236025140932</v>
+        <v>1.0744696457327292E-2</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>164.41955424221851</v>
+        <v>3.1806295170194822E-2</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>355.6928651364056</v>
+        <v>9.2534087881669919E-2</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>756.9767044011619</v>
+        <v>0.21111182066905962</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1462.0194567111057</v>
+        <v>0.42722184251228801</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2821.7620564650897</v>
+        <v>0.83122631419744408</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5246.122479403125</v>
+        <v>1.5061802168637508</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9646.8135551508676</v>
+        <v>2.5038355599808364</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>16968.850125139277</v>
+        <v>3.7747198381402742</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>28807.325386237189</v>
+        <v>5.0733380178709213</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>48317.738815471537</v>
+        <v>6.3705907175474392</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>74605.593208538194</v>
+        <v>8.7675814381889889</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>106223.24327366416</v>
+        <v>14.981449881783542</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>170117.26023945643</v>
+        <v>27.764711593416251</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>250124.13107751761</v>
+        <v>49.777644593590985</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>351686.72655988467</v>
+        <v>153.84422186821473</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>483155.37582597008</v>
+        <v>507.01399624251758</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>653774.48979277886</v>
+        <v>1043.0038735095586</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>850411.93578325305</v>
+        <v>1559.3255854504989</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1125644.9056912919</v>
+        <v>2291.4501830877939</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1490794.7531600588</v>
+        <v>2611.1098942902008</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>1998522.7081726254</v>
+        <v>2557.479099805355</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2494594.7085362878</v>
+        <v>2627.7892448759553</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>2933846.7392469142</v>
+        <v>3737.16901602898</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>3904962.0899609225</v>
+        <v>3515.0460689143124</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18988,126 +18988,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>1929.82059455579</v>
+        <v>-57.899396425307614</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>1900.3398931666397</v>
+        <v>-23.711804185102025</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6449.9538192091013</v>
+        <v>185.94111353535391</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4594068390269204</v>
+        <v>1.4981654157570766E-2</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5129112259349062</v>
+        <v>5.6763219963363892E-2</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.5092441512240633</v>
+        <v>0.10365662765750819</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.822618852723437</v>
+        <v>0.17834319490856618</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>18.859821450279046</v>
+        <v>0.30419416148517697</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.513209634667525</v>
+        <v>0.45946906388685149</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.236363016258565</v>
+        <v>0.65362209457169362</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>53.120260320004924</v>
+        <v>0.91171613685260833</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>72.430121354331064</v>
+        <v>1.2272653408549232</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>98.218193605619049</v>
+        <v>1.5823512757857645</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>130.26453901633889</v>
+        <v>1.9428638238796547</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>169.72720873872046</v>
+        <v>2.2524071607662148</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>219.81296325620002</v>
+        <v>2.5240029155188073</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>273.14024457874785</v>
+        <v>2.9610102056880838</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>325.91907473123473</v>
+        <v>3.8705877953850294</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>412.45273697656125</v>
+        <v>5.2692230540579938</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>500.12411567281737</v>
+        <v>7.0553273909572036</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>593.03180906245211</v>
+        <v>12.403395578155795</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>695.09378922989242</v>
+        <v>22.516971293726819</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>808.56322560006333</v>
+        <v>32.295570493638266</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>922.1778222139443</v>
+        <v>39.48829681627835</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1060.9641396820591</v>
+        <v>47.869094237177642</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1220.9810617532357</v>
+        <v>51.099020482688324</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1413.6911643540202</v>
+        <v>50.571524594433129</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1579.4286019115546</v>
+        <v>51.261966845566462</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1712.8475528332679</v>
+        <v>61.132389255033864</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>1976.0976924132376</v>
+        <v>59.287823951586489</v>
       </c>
     </row>
   </sheetData>
@@ -19138,115 +19138,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>7.066010101010102E-2</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19683,7 +19683,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>9.8160606060606059E-2</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>0.14701545195101701</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>0.20291885606060611</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>0.28626660606060611</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>0.42849942624878928</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19827,7 +19827,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.60852142628919337</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19854,7 +19854,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.82912642513131307</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>1.1165856081616159</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19936,7 +19936,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>1.463806013469489</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19974,7 +19974,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.8525675274694899</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20010,7 +20010,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.2911237799999991</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>2.7484078751515151</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20083,7 +20083,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>3.3303571682129509</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20134,7 +20134,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>4.3826757587597651</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>6.7389046300174407</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>12.16393079496509</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>17.556538376216551</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20257,7 +20257,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>32.386497215403303</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>62.967796824061253</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20305,7 +20305,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>95.624065743606096</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>141.70148508443501</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20353,7 +20353,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>219.84462125800599</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20373,7 +20373,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>309.36656131676813</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20393,7 +20393,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>390.37162542473442</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20413,7 +20413,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>466.8954102833199</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20433,7 +20433,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>591.00746619838731</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>743.17852652375313</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
